--- a/carbontracker/results.xlsx
+++ b/carbontracker/results.xlsx
@@ -413,14 +413,135 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ResNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CIFAR10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Evaluation Framework</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>carbontracker</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Energy (kWh)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.003830224227</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total CO2 Emissions (kgCO2e)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001415165125425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Training Time (minutes)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.183948572476705</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6149977527665117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6134735434546397</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Number of Epochs</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>